--- a/REGULAR/CASUAL-REGULAR FINAL/PAYAD, ALEXANDER.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/PAYAD, ALEXANDER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E864D650-2E8A-49B6-A358-20C5FABFE067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A17469-2112-4181-9203-DE8CECFD9369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
   <si>
     <t>PERIOD</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>DA</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -860,9 +863,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -872,17 +872,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,247 +901,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1380,6 +1142,247 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1411,25 +1414,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E36F62D8-FAB8-4246-9A4B-570B1B61847E}" name="Table13" displayName="Table13" ref="A8:K396" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E36F62D8-FAB8-4246-9A4B-570B1B61847E}" name="Table13" displayName="Table13" ref="A8:K396" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C61F1C67-BFD7-4B63-A7DD-90848C55B41B}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A22B1FDE-1592-4AEE-ADF4-8622FF1C5D63}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{357B2C60-0C2D-41F9-88AF-A31D92ECF45A}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{9A909B26-7CF7-42D3-89EC-6CB4C4A9B726}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{C6C95594-EFED-47EA-9BB0-CCBC5D7FABF2}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{C61F1C67-BFD7-4B63-A7DD-90848C55B41B}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{A22B1FDE-1592-4AEE-ADF4-8622FF1C5D63}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{357B2C60-0C2D-41F9-88AF-A31D92ECF45A}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{9A909B26-7CF7-42D3-89EC-6CB4C4A9B726}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C6C95594-EFED-47EA-9BB0-CCBC5D7FABF2}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{03405190-5DE8-4003-A475-B0CD9F8F4885}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C6816E07-8AAA-4C31-961B-5BBEDD76017E}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{03405190-5DE8-4003-A475-B0CD9F8F4885}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{C6816E07-8AAA-4C31-961B-5BBEDD76017E}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DB116DC8-7948-4816-A146-641846A931CD}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{CFF95BA2-1ED4-4544-BFC9-67D55201AA13}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{DB116DC8-7948-4816-A146-641846A931CD}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{CFF95BA2-1ED4-4544-BFC9-67D55201AA13}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{341DCD4D-E1EE-4E7D-994C-6515AEA97388}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{6F1FF6DD-239E-43D1-ADA6-33619D79AE73}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{341DCD4D-E1EE-4E7D-994C-6515AEA97388}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{6F1FF6DD-239E-43D1-ADA6-33619D79AE73}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1441,25 +1444,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1773,10 +1776,10 @@
   </sheetPr>
   <dimension ref="A2:K396"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="2220" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane ySplit="2220" topLeftCell="A247" activePane="bottomLeft"/>
+      <selection activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,64 +1801,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="60">
         <v>35947</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1881,18 +1884,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -9803,17 +9806,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{A2BF073D-6DE5-4357-9720-671AA83C5253}">
@@ -9849,10 +9852,10 @@
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="2220" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane ySplit="2220" topLeftCell="A49" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9874,64 +9877,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="60">
         <v>34641</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -9957,18 +9960,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -10015,7 +10018,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>38.667000000000002</v>
+        <v>37.667000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10993,7 +10996,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -11009,10 +11014,16 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="40">
+        <v>45216</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="39">
+        <v>1</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13" t="str">
@@ -11022,7 +11033,9 @@
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="49">
+        <v>45222</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
